--- a/ACO Test Structure - reduced.xlsx
+++ b/ACO Test Structure - reduced.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20300" windowHeight="24980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,15 +135,9 @@
     <t>4th file: # cities between 5,000-5,999</t>
   </si>
   <si>
-    <t xml:space="preserve">run each test 5 times: average length and time values </t>
-  </si>
-  <si>
     <t>again, run each test 5 times: average length and time values</t>
   </si>
   <si>
-    <t>test algorithm values first, using: 7 7 1 3.5 0.1</t>
-  </si>
-  <si>
     <t>e 7 7 1 3.5 0.1 x 10</t>
   </si>
   <si>
@@ -367,6 +361,12 @@
   </si>
   <si>
     <t>total tests all together = 73*4 = 292</t>
+  </si>
+  <si>
+    <t>test algorithm values first, using: 7 5 1 3.5 0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run each test 3 times: average length and time values </t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1058,7 @@
   <dimension ref="B2:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1096,7 +1096,7 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="E10" s="3"/>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -1226,7 +1226,7 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>22</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>23</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>24</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>25</v>
@@ -1258,35 +1258,35 @@
     </row>
     <row r="17" spans="2:8" ht="16" thickBot="1">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="2:8" ht="16" thickBot="1">
       <c r="B19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="60">
@@ -1299,258 +1299,258 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/ACO Test Structure - reduced.xlsx
+++ b/ACO Test Structure - reduced.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20300" windowHeight="24980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t># ants</t>
   </si>
@@ -120,253 +120,151 @@
     <t>select optimal elitist amount, and select optimal epsilon and qProb values</t>
   </si>
   <si>
-    <t>due this process for 4 different file problems:</t>
-  </si>
-  <si>
-    <t>1st file: # cities between 2,000-2,999</t>
-  </si>
-  <si>
-    <t>2nd file: # cities between 3,000-3,999</t>
-  </si>
-  <si>
-    <t>3rd file: # cities between 4,000-4,999</t>
-  </si>
-  <si>
-    <t>4th file: # cities between 5,000-5,999</t>
-  </si>
-  <si>
-    <t>again, run each test 5 times: average length and time values</t>
-  </si>
-  <si>
-    <t>e 7 7 1 3.5 0.1 x 10</t>
-  </si>
-  <si>
-    <t>e 7 7 1 3.5 0.1 x 20</t>
-  </si>
-  <si>
-    <t>e 7 7 1 3.5 0.1 x 30</t>
-  </si>
-  <si>
-    <t>a 7 7 1 3.5 0.1 x 0.05 0.9</t>
-  </si>
-  <si>
-    <t>a 7 7 1 3.5 0.1 x 0.1 0.9</t>
-  </si>
-  <si>
-    <t>a 7 7 1 3.5 0.1 x 0.05 0.5</t>
-  </si>
-  <si>
-    <t>a 7 7 1 3.5 0.1 x 0.2 0.9</t>
-  </si>
-  <si>
-    <t>a 7 7 1 3.5 0.1 x 0.1 0.5</t>
-  </si>
-  <si>
-    <t>a 7 7 1 3.5 0.1 x 0.2 0.5</t>
-  </si>
-  <si>
-    <t>e 5 5 1 3.5 0.1 x y</t>
-  </si>
-  <si>
-    <t>e 10 5 1 3.5 0.1 x y</t>
-  </si>
-  <si>
-    <t>e 5 10 1 3.5 0.1 x y</t>
-  </si>
-  <si>
-    <t>e 10 10 1 3.5 0.1 x y</t>
-  </si>
-  <si>
-    <t>e 5 5 0.8 3.5 0.1 x y</t>
-  </si>
-  <si>
-    <t>e 10 5 0.8 3.5 0.1 x y</t>
-  </si>
-  <si>
-    <t>e 5 10 0.8 3.5 0.1 x y</t>
-  </si>
-  <si>
-    <t>e 10 10 0.8 3.5 0.1 x y</t>
-  </si>
-  <si>
-    <t>e 5 5 1 1 0.1 x y</t>
-  </si>
-  <si>
-    <t>e 10 5 1 1 0.1 x y</t>
-  </si>
-  <si>
-    <t>e 5 10 1 1 0.1 x y</t>
-  </si>
-  <si>
-    <t>e 10 10 1 1 0.1 x y</t>
-  </si>
-  <si>
-    <t>e 5 5 0.8 1 0.1 x y</t>
-  </si>
-  <si>
-    <t>e 10 5 0.8 1 0.1 x y</t>
-  </si>
-  <si>
-    <t>e 5 10 0.8 1 0.1 x y</t>
-  </si>
-  <si>
-    <t>e 10 10 0.8 1 0.1 x y</t>
-  </si>
-  <si>
-    <t>e 5 5 1 3.5 0.2 x y</t>
-  </si>
-  <si>
-    <t>e 10 5 1 3.5 0.2 x y</t>
-  </si>
-  <si>
-    <t>e 5 10 1 3.5 0.2 x y</t>
-  </si>
-  <si>
-    <t>e 10 10 1 3.5 0.2 x y</t>
-  </si>
-  <si>
-    <t>e 5 5 0.8 3.5 0.2 x y</t>
-  </si>
-  <si>
-    <t>e 10 5 0.8 3.5 0.2 x y</t>
-  </si>
-  <si>
-    <t>e 5 10 0.8 3.5 0.2 x y</t>
-  </si>
-  <si>
-    <t>e 10 10 0.8 3.5 0.2 x y</t>
-  </si>
-  <si>
-    <t>e 5 5 1 1 0.2 x y</t>
-  </si>
-  <si>
-    <t>e 10 5 1 1 0.2 x y</t>
-  </si>
-  <si>
-    <t>e 5 10 1 1 0.2 x y</t>
-  </si>
-  <si>
-    <t>e 10 10 1 1 0.2 x y</t>
-  </si>
-  <si>
-    <t>e 5 5 0.8 1 0.2 x y</t>
-  </si>
-  <si>
-    <t>e 10 5 0.8 1 0.2 x y</t>
-  </si>
-  <si>
-    <t>e 5 10 0.8 1 0.2 x y</t>
-  </si>
-  <si>
-    <t>e 10 10 0.8 1 0.2 x y</t>
-  </si>
-  <si>
-    <t>a 5 5 1 3.5 0.1 x y z</t>
-  </si>
-  <si>
-    <t>a 10 5 1 3.5 0.1 x y z</t>
-  </si>
-  <si>
-    <t>a 5 10 1 3.5 0.1 x y z</t>
-  </si>
-  <si>
-    <t>a 10 10 1 3.5 0.1 x y z</t>
-  </si>
-  <si>
-    <t>a 5 5 0.8 3.5 0.1 x y z</t>
-  </si>
-  <si>
-    <t>a 10 5 0.8 3.5 0.1 x y z</t>
-  </si>
-  <si>
-    <t>a 5 10 0.8 3.5 0.1 x y z</t>
-  </si>
-  <si>
-    <t>a 10 10 0.8 3.5 0.1 x y z</t>
-  </si>
-  <si>
-    <t>a 5 5 1 1 0.1 x y z</t>
-  </si>
-  <si>
-    <t>a 10 5 1 1 0.1 x y z</t>
-  </si>
-  <si>
-    <t>a 5 10 1 1 0.1 x y z</t>
-  </si>
-  <si>
-    <t>a 10 10 1 1 0.1 x y z</t>
-  </si>
-  <si>
-    <t>a 5 5 0.8 1 0.1 x y z</t>
-  </si>
-  <si>
-    <t>a 10 5 0.8 1 0.1 x y z</t>
-  </si>
-  <si>
-    <t>a 5 10 0.8 1 0.1 x y z</t>
-  </si>
-  <si>
-    <t>a 10 10 0.8 1 0.1 x y z</t>
-  </si>
-  <si>
-    <t>a 5 5 1 3.5 0.2 x y z</t>
-  </si>
-  <si>
-    <t>a 10 5 1 3.5 0.2 x y z</t>
-  </si>
-  <si>
-    <t>a 5 10 1 3.5 0.2 x y z</t>
-  </si>
-  <si>
-    <t>a 10 10 1 3.5 0.2 x y z</t>
-  </si>
-  <si>
-    <t>a 5 5 0.8 3.5 0.2 x y z</t>
-  </si>
-  <si>
-    <t>a 10 5 0.8 3.5 0.2 x y z</t>
-  </si>
-  <si>
-    <t>a 5 10 0.8 3.5 0.2 x y z</t>
-  </si>
-  <si>
-    <t>a 10 10 0.8 3.5 0.2 x y z</t>
-  </si>
-  <si>
-    <t>a 5 5 1 1 0.2 x y z</t>
-  </si>
-  <si>
-    <t>a 10 5 1 1 0.2 x y z</t>
-  </si>
-  <si>
-    <t>a 5 10 1 1 0.2 x y z</t>
-  </si>
-  <si>
-    <t>a 10 10 1 1 0.2 x y z</t>
-  </si>
-  <si>
-    <t>a 5 5 0.8 1 0.2 x y z</t>
-  </si>
-  <si>
-    <t>a 10 5 0.8 1 0.2 x y z</t>
-  </si>
-  <si>
-    <t>a 5 10 0.8 1 0.2 x y z</t>
-  </si>
-  <si>
-    <t>a 10 10 0.8 1 0.2 x y z</t>
-  </si>
-  <si>
-    <t>total tests per file = 9+32+32 = 73</t>
-  </si>
-  <si>
-    <t>total tests all together = 73*4 = 292</t>
-  </si>
-  <si>
-    <t>test algorithm values first, using: 7 5 1 3.5 0.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">run each test 3 times: average length and time values </t>
+  </si>
+  <si>
+    <t>set to 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max time = 8 mins </t>
+  </si>
+  <si>
+    <t>e 30 500 1 3.5 0.1 x 10</t>
+  </si>
+  <si>
+    <t>test algorithm values first, using: 30 500 1 3.5 0.1</t>
+  </si>
+  <si>
+    <t>e 30 500 1 3.5 0.1 x 20</t>
+  </si>
+  <si>
+    <t>e 30 500 1 3.5 0.1 x 30</t>
+  </si>
+  <si>
+    <t>a 30 500 1 3.5 0.1 x 0.05 0.9</t>
+  </si>
+  <si>
+    <t>a 30 500 1 3.5 0.1 x 0.05 0.5</t>
+  </si>
+  <si>
+    <t>a 30 500 1 3.5 0.1 x 0.1 0.9</t>
+  </si>
+  <si>
+    <t>a 30 500 1 3.5 0.1 x 0.1 0.5</t>
+  </si>
+  <si>
+    <t>e 20 500 1 3.5 0.1 x y</t>
+  </si>
+  <si>
+    <t>e 40 500 1 3.5 0.1 x y</t>
+  </si>
+  <si>
+    <t>e 20 500 0.8 3.5 0.1 x y</t>
+  </si>
+  <si>
+    <t>e 40 500 0.8 3.5 0.1 x y</t>
+  </si>
+  <si>
+    <t>e 20 500 1 1 0.1 x y</t>
+  </si>
+  <si>
+    <t>e 40 500 1 1 0.1 x y</t>
+  </si>
+  <si>
+    <t>e 20 500 0.8 1 0.1 x y</t>
+  </si>
+  <si>
+    <t>e 40 500 0.8 1 0.1 x y</t>
+  </si>
+  <si>
+    <t>e 20 500 1 3.5 0.2 x y</t>
+  </si>
+  <si>
+    <t>e 40 500 1 3.5 0.2 x y</t>
+  </si>
+  <si>
+    <t>e 20 500 0.8 3.5 0.2 x y</t>
+  </si>
+  <si>
+    <t>e 40 500 0.8 3.5 0.2 x y</t>
+  </si>
+  <si>
+    <t>e 20 500 1 1 0.2 x y</t>
+  </si>
+  <si>
+    <t>e 40 500 1 1 0.2 x y</t>
+  </si>
+  <si>
+    <t>e 20 500 0.8 1 0.2 x y</t>
+  </si>
+  <si>
+    <t>e 40 500 0.8 1 0.2 x y</t>
+  </si>
+  <si>
+    <t>a 20 500 1 3.5 0.1 x y z</t>
+  </si>
+  <si>
+    <t>a 40 500 1 3.5 0.1 x y z</t>
+  </si>
+  <si>
+    <t>a 20 500 0.8 3.5 0.1 x y z</t>
+  </si>
+  <si>
+    <t>a 40 500 0.8 3.5 0.1 x y z</t>
+  </si>
+  <si>
+    <t>a 20 500 1 1 0.1 x y z</t>
+  </si>
+  <si>
+    <t>a 40 500 1 1 0.1 x y z</t>
+  </si>
+  <si>
+    <t>a 20 500 0.8 1 0.1 x y z</t>
+  </si>
+  <si>
+    <t>a 40 500 0.8 1 0.1 x y z</t>
+  </si>
+  <si>
+    <t>a 20 500 1 3.5 0.2 x y z</t>
+  </si>
+  <si>
+    <t>a 40 500 1 3.5 0.2 x y z</t>
+  </si>
+  <si>
+    <t>a 20 500 0.8 3.5 0.2 x y z</t>
+  </si>
+  <si>
+    <t>a 40 500 0.8 3.5 0.2 x y z</t>
+  </si>
+  <si>
+    <t>a 20 500 1 1 0.2 x y z</t>
+  </si>
+  <si>
+    <t>a 40 500 1 1 0.2 x y z</t>
+  </si>
+  <si>
+    <t>a 20 500 0.8 1 0.2 x y z</t>
+  </si>
+  <si>
+    <t>a 40 500 0.8 1 0.2 x y z</t>
+  </si>
+  <si>
+    <t>total tests per file = 7+16+16 = 39</t>
+  </si>
+  <si>
+    <t>total tests all together = 39*2 = 78</t>
+  </si>
+  <si>
+    <t>due this process for 2 different file problems:</t>
+  </si>
+  <si>
+    <t>again, run each test 3 times: average length and time values</t>
+  </si>
+  <si>
+    <t>d2103.tsp</t>
+  </si>
+  <si>
+    <t>pr2392.tsp</t>
   </si>
 </sst>
 </file>
@@ -576,8 +474,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -665,7 +585,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -696,6 +616,17 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -726,6 +657,17 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1055,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H55"/>
+  <dimension ref="B2:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1068,7 +1010,7 @@
     <col min="7" max="7" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="16" thickBot="1">
+    <row r="2" spans="2:8" ht="16" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1081,40 +1023,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="16" thickTop="1">
+    <row r="3" spans="2:8" ht="16" thickTop="1">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10</v>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1129,7 +1071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:8">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1141,7 +1083,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1159,7 +1101,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:8">
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
@@ -1173,19 +1115,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:8">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="2">
         <v>0.05</v>
       </c>
-      <c r="D9" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="8" t="s">
         <v>16</v>
       </c>
@@ -1193,7 +1133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:8">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1205,15 +1145,15 @@
       </c>
       <c r="E10" s="3"/>
       <c r="G10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="G11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="30">
+    <row r="12" spans="2:8" ht="30">
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1221,336 +1161,193 @@
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="16" thickBot="1">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" t="s">
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="G16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:8" ht="16" thickBot="1">
       <c r="B17" t="s">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="60">
+      <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="2:8" ht="16" thickBot="1">
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="60">
-      <c r="B23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>12</v>
+      <c r="G23" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" t="s">
         <v>63</v>
-      </c>
-      <c r="G51" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" t="s">
-        <v>65</v>
-      </c>
-      <c r="G53" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
